--- a/Git桌面-不放大文件/汇报/第十九次汇报/实验/实验二（基线对比实验）.xlsx
+++ b/Git桌面-不放大文件/汇报/第十九次汇报/实验/实验二（基线对比实验）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\汇报\第十九次汇报\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF18A4-DDB3-404C-8934-68255AC42060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD09FCA-3E65-496B-B5F9-FFA29B5B32D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Bank</t>
   </si>
@@ -86,41 +86,23 @@
     <t>TabDDPM[ ]</t>
   </si>
   <si>
-    <t>Methods\Dataset(LackR-B)</t>
+    <t>FedPSG-PUM(TabDDPM)</t>
+  </si>
+  <si>
+    <t>FedPSG-PUM(VF-GAIN)</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Methods\Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FedPSG-PUM(TabDDPM)</t>
-  </si>
-  <si>
-    <t>FedPSG-PUM(VF-GAIN)</t>
-  </si>
-  <si>
-    <t>Dataset(LackR-B)</t>
-  </si>
-  <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Letter</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>N-GN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
+    <t>Methods\Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,19 +176,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,7 +478,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,22 +489,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1">
         <v>0.2</v>
       </c>
@@ -650,16 +638,16 @@
       <c r="G7" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>0.21429999999999999</v>
@@ -679,16 +667,16 @@
       <c r="G8" s="2">
         <v>0.43530000000000002</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0.2097</v>
@@ -708,56 +696,44 @@
       <c r="G9" s="2">
         <v>0.4153</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -775,29 +751,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4F1744-F36D-4785-9F8D-451D218A2083}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2">
         <v>0.2</v>
       </c>
@@ -932,7 +914,58 @@
         <v>0.56710000000000005</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3674</v>
+      </c>
+      <c r="D8">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
